--- a/cs.xlsx
+++ b/cs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lina/Desktop/APP/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A374F4F-1EE3-5A4C-ABA3-F1E8150144EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CA9B8-4A3C-BA4B-BCEE-0B63BA54B13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16340" xr2:uid="{D1288400-4FE9-934C-A4CB-1773FA4D8FCF}"/>
+    <workbookView xWindow="15660" yWindow="0" windowWidth="13140" windowHeight="18000" xr2:uid="{D1288400-4FE9-934C-A4CB-1773FA4D8FCF}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil2" sheetId="2" r:id="rId1"/>
@@ -36,31 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
-  <si>
-    <t>TOP1</t>
-  </si>
-  <si>
-    <t>TOP2</t>
-  </si>
-  <si>
-    <t>TOP3</t>
-  </si>
-  <si>
-    <t>TOP4</t>
-  </si>
-  <si>
-    <t>TOP5</t>
-  </si>
-  <si>
-    <t>Colonne7</t>
-  </si>
-  <si>
-    <t>Colonne8</t>
-  </si>
-  <si>
-    <t>Colonne9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>Art affiliation</t>
   </si>
@@ -86,9 +62,6 @@
     <t>Cycling</t>
   </si>
   <si>
-    <t>Festivals</t>
-  </si>
-  <si>
     <t>Carnaval, Rio de Janeiro, Brasil (February)</t>
   </si>
   <si>
@@ -155,30 +128,6 @@
     <t>Sailing</t>
   </si>
   <si>
-    <t>Seven wonders of the world</t>
-  </si>
-  <si>
-    <t>Machu Picchu, Peru (March-May and September-mid-December)</t>
-  </si>
-  <si>
-    <t>Taj Mahal, India (November-February)</t>
-  </si>
-  <si>
-    <t>The Colosseum, Rome (March-Juin, September-November)</t>
-  </si>
-  <si>
-    <t>Christ the Redeemer, Brazil (November-March)</t>
-  </si>
-  <si>
-    <t>Petra, Jordan (March-November)</t>
-  </si>
-  <si>
-    <t>Chichen Itza, Mexico (November-August)</t>
-  </si>
-  <si>
-    <t>Great Wall of China (March-May, September-early November)</t>
-  </si>
-  <si>
     <t>Shopping</t>
   </si>
   <si>
@@ -215,9 +164,6 @@
     <t>Windsurfing</t>
   </si>
   <si>
-    <t>Honolulu, Hawaii (late October to early March)</t>
-  </si>
-  <si>
     <t>Phuket, Thailand (May - October)</t>
   </si>
   <si>
@@ -359,9 +305,6 @@
     <t>South Luangwa National Park; Lower Zambezi National Park, Zambia (June to October)</t>
   </si>
   <si>
-    <t>Indian Ocean Islands: Seychelles, Madagascar (November, May)</t>
-  </si>
-  <si>
     <t>Les Portes du Soleil (Morzine/​Avoriaz/​Les Gets/​ Châtel/​Morgins/​Champéry), Switzerland (December-February)</t>
   </si>
   <si>
@@ -386,12 +329,6 @@
     <t>Hawaii, USA (November - May)</t>
   </si>
   <si>
-    <t>Canary Islands (December - April)</t>
-  </si>
-  <si>
-    <t>Iceland (May - September)</t>
-  </si>
-  <si>
     <t>Greek islands: Mykonos, Santorini, Crete,Corfu (June - August)</t>
   </si>
   <si>
@@ -419,15 +356,6 @@
     <t>Paris, France</t>
   </si>
   <si>
-    <t>Hong Kong , China</t>
-  </si>
-  <si>
-    <t>Buenos Aires, Argentina</t>
-  </si>
-  <si>
-    <t>Vienna, Austria</t>
-  </si>
-  <si>
     <t>Kalymnos, Greece (April-May, September-October)</t>
   </si>
   <si>
@@ -449,13 +377,43 @@
     <t xml:space="preserve">Louisiana Museum of Modern Art, Humlebaek, Denmark </t>
   </si>
   <si>
-    <t>The Sun Road, US (April - June, 1 day)</t>
-  </si>
-  <si>
-    <t>Tasmania's West Coast,  Autralia (November-March, 14-20 days)</t>
-  </si>
-  <si>
-    <t>The Great Divide, Canada and US (November-March, 40 days)</t>
+    <t>Carnavals</t>
+  </si>
+  <si>
+    <t>TOP 5</t>
+  </si>
+  <si>
+    <t>TOP 4</t>
+  </si>
+  <si>
+    <t>TOP 3</t>
+  </si>
+  <si>
+    <t>TOP 2</t>
+  </si>
+  <si>
+    <t>TOP 1</t>
+  </si>
+  <si>
+    <t>Music Festivals</t>
+  </si>
+  <si>
+    <t>Essence Festival, New Oleans, Louisiana, USA (June to July)</t>
+  </si>
+  <si>
+    <t>Szjiget festival, Budapest, Hungary (August)</t>
+  </si>
+  <si>
+    <t>Tomorrowland, Boom, Belgium (July)</t>
+  </si>
+  <si>
+    <t>Coachella, Indio, California, USA (April)</t>
+  </si>
+  <si>
+    <t>Summerfest, Milwaukee, Wisconsin, USA (June-July)</t>
+  </si>
+  <si>
+    <t>Honolulu, Hawaii (October - March)</t>
   </si>
 </sst>
 </file>
@@ -512,7 +470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -544,32 +502,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -907,10 +849,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E44E51A-8400-334D-9124-08C4E68A8DB0}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -918,520 +860,430 @@
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="82.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="53.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.1640625" customWidth="1"/>
+    <col min="5" max="5" width="95.83203125" customWidth="1"/>
+    <col min="6" max="6" width="81.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    </row>
+    <row r="19" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I6" s="6" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="E20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="7"/>
-    </row>
-    <row r="10" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" ht="19" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="7"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
